--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.306396588970786</v>
+        <v>0.3157193333333333</v>
       </c>
       <c r="H2">
-        <v>0.306396588970786</v>
+        <v>0.9471579999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.7690665084911</v>
+        <v>22.20462366666667</v>
       </c>
       <c r="N2">
-        <v>18.7690665084911</v>
+        <v>66.613871</v>
       </c>
       <c r="O2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="P2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="Q2">
-        <v>5.750777956367493</v>
+        <v>7.010428980957554</v>
       </c>
       <c r="R2">
-        <v>5.750777956367493</v>
+        <v>63.093860828618</v>
       </c>
       <c r="S2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="T2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.306396588970786</v>
+        <v>0.3157193333333333</v>
       </c>
       <c r="H3">
-        <v>0.306396588970786</v>
+        <v>0.9471579999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,31 +617,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>15.4189305701728</v>
+        <v>0.283297</v>
       </c>
       <c r="N3">
-        <v>15.4189305701728</v>
+        <v>0.849891</v>
       </c>
       <c r="O3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="P3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="Q3">
-        <v>4.724307732278322</v>
+        <v>0.08944233997533331</v>
       </c>
       <c r="R3">
-        <v>4.724307732278322</v>
+        <v>0.8049810597779999</v>
       </c>
       <c r="S3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="T3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.306396588970786</v>
+        <v>0.3157193333333333</v>
       </c>
       <c r="H4">
-        <v>0.306396588970786</v>
+        <v>0.9471579999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.219300923396</v>
+        <v>16.39074133333333</v>
       </c>
       <c r="N4">
-        <v>11.219300923396</v>
+        <v>49.172224</v>
       </c>
       <c r="O4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
       <c r="P4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
       <c r="Q4">
-        <v>3.437555533565324</v>
+        <v>5.174873926599111</v>
       </c>
       <c r="R4">
-        <v>3.437555533565324</v>
+        <v>46.573865339392</v>
       </c>
       <c r="S4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
       <c r="T4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +717,117 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12.09279533333333</v>
+      </c>
+      <c r="N5">
+        <v>36.278386</v>
+      </c>
+      <c r="O5">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="P5">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="Q5">
+        <v>3.817929280776444</v>
+      </c>
+      <c r="R5">
+        <v>34.36136352698799</v>
+      </c>
+      <c r="S5">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="T5">
+        <v>0.1621963656141515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.306396588970786</v>
-      </c>
-      <c r="H5">
-        <v>0.306396588970786</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>10.4027646243143</v>
-      </c>
-      <c r="N5">
-        <v>10.4027646243143</v>
-      </c>
-      <c r="O5">
-        <v>0.186395860079151</v>
-      </c>
-      <c r="P5">
-        <v>0.186395860079151</v>
-      </c>
-      <c r="Q5">
-        <v>3.187371596755861</v>
-      </c>
-      <c r="R5">
-        <v>3.187371596755861</v>
-      </c>
-      <c r="S5">
-        <v>0.186395860079151</v>
-      </c>
-      <c r="T5">
-        <v>0.186395860079151</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>23.585055</v>
+      </c>
+      <c r="N6">
+        <v>70.75516500000001</v>
+      </c>
+      <c r="O6">
+        <v>0.3163379597821584</v>
+      </c>
+      <c r="P6">
+        <v>0.3163379597821585</v>
+      </c>
+      <c r="Q6">
+        <v>7.44625784123</v>
+      </c>
+      <c r="R6">
+        <v>67.01632057107</v>
+      </c>
+      <c r="S6">
+        <v>0.3163379597821584</v>
+      </c>
+      <c r="T6">
+        <v>0.3163379597821585</v>
       </c>
     </row>
   </sheetData>
